--- a/CleanedData.xlsx
+++ b/CleanedData.xlsx
@@ -538,7 +538,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>$499/$599*</t>
+          <t>[499.0, 599.0]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -563,36 +563,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>June 9, 2008</t>
+          <t>August 9, 2010</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>March 3, 2011</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>iOS 4.2.1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
+          <t>2 years, 7 months</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2 years</t>
+          <t>6 months</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>$199/$299*</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>499</v>
+          <t>[199.0, 299.0]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[499.0]</t>
+        </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -615,37 +617,37 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>June 9, 2008</t>
+          <t>September 12, 2012</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>September 18, 2013</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>iOS 6.1.6</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
+          <t>4 years, 2 months</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2 years</t>
+          <t>1 year</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>$199/$299*</t>
+          <t>[199.0, 299.0]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>$599/$699</t>
+          <t>[599.0, 699.0]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -669,37 +671,37 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>June 9, 2008</t>
+          <t>September 10, 2013</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>September 17, 2014</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>iOS 7.1.2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
+          <t>4 years, 2 months</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2 years</t>
+          <t>1 year</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>$199/$299*</t>
+          <t>[199.0, 299.0]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>$649/$749</t>
+          <t>[649.0, 749.0]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -723,22 +725,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>June 9, 2008</t>
+          <t>September 9, 2014</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>September 12, 2016</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>iOS 9.3.5</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
+          <t>4 years, 10 months</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -748,12 +750,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>$199/$299/$399*</t>
+          <t>[199.0, 299.0, 399.0]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>$649/$749/$849</t>
+          <t>[649.0, 749.0, 849.0]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -785,37 +787,37 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>June 9, 2008</t>
+          <t>September 10, 2013</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>September 18, 2017</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>iOS 10.3.3</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
+          <t>4 years, 11 months</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2 years</t>
+          <t>4 years</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>$199/$299/$399*</t>
+          <t>[199.0, 299.0, 399.0]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$649/$749/$849</t>
+          <t>[649.0, 749.0, 849.0]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -847,22 +849,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>June 9, 2008</t>
+          <t>September 9, 2015</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>September 18, 2017</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>iOS 10.3.3</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
+          <t>3 years, 11 months</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -872,12 +874,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>$99/$199*</t>
+          <t>[99.0, 199.0]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>$549/$649</t>
+          <t>[549.0, 649.0]</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -901,37 +903,37 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>June 9, 2008</t>
+          <t>March 21, 2016</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>September 18, 2019</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>iOS 12.4.1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
+          <t>5 years, 11 months</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2 years</t>
+          <t>3 years, 5 months</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>$199/$299/$399*</t>
+          <t>[199.0, 299.0, 399.0]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>$649/$749/$849</t>
+          <t>[649.0, 749.0, 849.0]</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -963,37 +965,37 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>June 9, 2008</t>
+          <t>September 7, 2016</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>September 18, 2019</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>iOS 12.4.1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
+          <t>4 years, 11 months</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2 years</t>
+          <t>3 years</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>$199/$299/$399*</t>
+          <t>[199.0, 299.0, 399.0]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>$649/$749/$849</t>
+          <t>[649.0, 749.0, 849.0]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1013,41 +1015,49 @@
           <t>iPhone 6 Plus</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>iOS 8.0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>September 19, 2014</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>June 9, 2008</t>
+          <t>September 7, 2016</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>September 18, 2019</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>iOS 12.4.1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
+          <t>4 years, 11 months</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2 years</t>
+          <t>3 years</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Plus:$299/$399/$499*</t>
+          <t>[299.0, 399.0, 499.0]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Plus:$749/$849/$949</t>
+          <t>[749.0, 849.0, 949.0]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1071,37 +1081,37 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>June 9, 2008</t>
+          <t>September 12, 2018</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>current</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>latest iOS</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
+          <t>&gt; 5 years, 1 month</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2 years</t>
+          <t>&gt; 2 years, 2 months</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>$199/$299/$399*</t>
+          <t>[199.0, 299.0, 399.0]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>$649/$749/$849</t>
+          <t>[649.0, 749.0, 849.0]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1113,41 +1123,49 @@
           <t>iPhone 6S Plus</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>iOS 9.0.1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>September 25, 2015</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>June 9, 2008</t>
+          <t>September 12, 2018</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>current</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>latest iOS</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
+          <t>&gt; 5 years, 1 month</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2 years</t>
+          <t>&gt; 2 years, 2 months</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Plus:$299/$399/$499*</t>
+          <t>[299.0, 399.0, 499.0]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Plus:$749/$849/$949</t>
+          <t>[749.0, 849.0, 949.0]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1171,33 +1189,33 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>June 9, 2008</t>
+          <t>September 12, 2018</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>current</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>latest iOS</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
+          <t>&gt; 4 years, 7 months</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2 years</t>
+          <t>&gt; 2 years, 2 months</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>$399/$499</t>
+          <t>[399.0, 499.0]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1221,37 +1239,37 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>June 9, 2008</t>
+          <t>September 10, 2019</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>current</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>latest iOS</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
+          <t>&gt; 4 years, 2 months</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2 years</t>
+          <t>&gt; 1 year, 2 months</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>$199/$299/$399*</t>
+          <t>[199.0, 299.0, 399.0]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>$649/$749/$849</t>
+          <t>[649.0, 749.0, 849.0]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1263,41 +1281,49 @@
           <t>iPhone 7 Plus</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>iOS 10.0.1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>September 16, 2016</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>June 9, 2008</t>
+          <t>September 10, 2019</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>current</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>latest iOS</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
+          <t>&gt; 4 years, 2 months</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2 years</t>
+          <t>&gt; 1 year, 2 months</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Plus:$319/$419/$519*</t>
+          <t>[319.0, 419.0, 519.0]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Plus:$769/$869/$969</t>
+          <t>[769.0, 869.0, 969.0]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1321,33 +1347,33 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>June 9, 2008</t>
+          <t>April 15, 2020</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>current</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>latest iOS</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
+          <t>&gt; 3 years, 2 months</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2 years</t>
+          <t>&gt; 7 months</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>$699/$849</t>
+          <t>[699.0, 849.0]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1359,37 +1385,45 @@
           <t>iPhone 8 Plus</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>iOS 11.0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>September 22, 2017</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>June 9, 2008</t>
+          <t>April 15, 2020</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>current</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>latest iOS</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
+          <t>&gt; 3 years, 2 months</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2 years</t>
+          <t>&gt; 7 months</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Plus:$799/$949</t>
+          <t>[799.0, 949.0]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1413,37 +1447,37 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>June 9, 2008</t>
+          <t>September 12, 2018</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>current</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>latest iOS</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
+          <t>&gt; 3 years</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2 years</t>
+          <t>&gt; 2 years, 2 months</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>$549/$699*</t>
+          <t>[549.0, 699.0]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>$999/$1149</t>
+          <t>[999.0, 1149.0]</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1467,33 +1501,33 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>June 9, 2008</t>
+          <t>September 10, 2019</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>current</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>latest iOS</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
+          <t>&gt; 2 years, 2 months</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2 years</t>
+          <t>&gt; 1 year, 2 months</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>$999/$1149/$1349</t>
+          <t>[999.0, 1149.0, 1349.0]</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1505,37 +1539,45 @@
           <t>iPhone XS Max</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>iOS 12.0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>September 21, 2018</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>June 9, 2008</t>
+          <t>September 10, 2019</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>current</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>latest iOS</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
+          <t>&gt; 2 years, 2 months</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2 years</t>
+          <t>&gt; 1 year, 2 months</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Max:$1099/$1249/$1449</t>
+          <t>[1099.0, 1249.0, 1449.0]</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1557,35 +1599,27 @@
           <t>October 26, 2018</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>June 9, 2008</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>current</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>latest iOS</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2 years</t>
-        </is>
-      </c>
+          <t>&gt; 2 years</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>$749/$799/$899</t>
+          <t>[749.0, 799.0, 899.0]</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1607,35 +1641,27 @@
           <t>September 20, 2019</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>June 9, 2008</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>current</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>latest iOS</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2 years</t>
-        </is>
-      </c>
+          <t>&gt; 1 year, 2 months</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>$699/$749/$849</t>
+          <t>[699.0, 749.0, 849.0]</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1659,33 +1685,29 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>June 9, 2008</t>
+          <t>October 13, 2020</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>current</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>latest iOS</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2 years</t>
-        </is>
-      </c>
+          <t>&gt; 1 year, 2 months</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>$999/$1149/$1349</t>
+          <t>[999.0, 1149.0, 1349.0]</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1697,37 +1719,41 @@
           <t>iPhone 11 Pro Max</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>iOS 13.0</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>September 20, 2019</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>June 9, 2008</t>
+          <t>October 13, 2020</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>current</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>latest iOS</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2 years</t>
-        </is>
-      </c>
+          <t>&gt; 1 year, 2 months</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Max:$1099/$1249/$1449</t>
+          <t>[1099.0, 1249.0, 1449.0]</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1749,35 +1775,27 @@
           <t>April 24, 2020</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>June 9, 2008</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>current</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>latest iOS</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2 years</t>
-        </is>
-      </c>
+          <t>&gt; 6 months</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>$399/$449/$549</t>
+          <t>[399.0, 449.0, 549.0]</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1799,35 +1817,27 @@
           <t>October 23, 2020 (12)</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>June 9, 2008</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>current</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>latest iOS</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2 years</t>
-        </is>
-      </c>
+          <t>&gt;0 months</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>$799/$849/$949</t>
+          <t>[799.0, 849.0, 949.0]</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1849,35 +1859,27 @@
           <t>November 13, 2020</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>June 9, 2008</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>current</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>latest iOS</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2 years</t>
-        </is>
-      </c>
+          <t>&gt;0 months</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Mini:$699/$749/$849</t>
+          <t>[699.0, 749.0, 849.0]</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1899,35 +1901,27 @@
           <t>October 23, 2020 (12 Pro)</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>June 9, 2008</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>current</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>latest iOS</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2 years</t>
-        </is>
-      </c>
+          <t>&gt;0 months</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>$999/$1099/$1299</t>
+          <t>[999.0, 1099.0, 1299.0]</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -1949,37 +1943,29 @@
           <t>November 13, 2020</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>June 9, 2008</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>June 20, 2010</t>
+          <t>current</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>iPhone OS 3.1.3</t>
+          <t>latest iOS</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2 years, 11 months</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2 years</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Max:$1099/$1199/$1399</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
+          <t>&gt;0 months</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>[1099.0, 1199.0, 1399.0]</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
     </row>

--- a/CleanedData.xlsx
+++ b/CleanedData.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -506,20 +510,14 @@
           <t>iPhone OS 1.0</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>June 29, 2007</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>June 9, 2008</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>June 20, 2010</t>
-        </is>
+      <c r="C2" s="2" t="n">
+        <v>39262</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>39608</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>40349</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -556,20 +554,14 @@
           <t>iPhone OS 2.0</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>July 11, 2008</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>August 9, 2010</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>March 3, 2011</t>
-        </is>
+      <c r="C3" s="2" t="n">
+        <v>39640</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>40399</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>40605</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -610,20 +602,14 @@
           <t>iPhone OS 3.0</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>June 19, 2009</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>September 12, 2012</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>September 18, 2013</t>
-        </is>
+      <c r="C4" s="2" t="n">
+        <v>39983</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>41164</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>41535</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -664,20 +650,14 @@
           <t>iOS 4.0</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>June 24, 2010</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>September 10, 2013</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>September 17, 2014</t>
-        </is>
+      <c r="C5" s="2" t="n">
+        <v>40353</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>41527</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>41899</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -718,20 +698,14 @@
           <t>iOS 5.0</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>October 14, 2011</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>September 9, 2014</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>September 12, 2016</t>
-        </is>
+      <c r="C6" s="2" t="n">
+        <v>40830</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>41891</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>42625</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -758,10 +732,8 @@
           <t>[649.0, 749.0, 849.0]</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>(late, single update: July 22, 2019)</t>
-        </is>
+      <c r="K6" s="2" t="n">
+        <v>43668</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -780,20 +752,14 @@
           <t>iOS 6.0</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>September 21, 2012</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>September 10, 2013</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>September 18, 2017</t>
-        </is>
+      <c r="C7" s="2" t="n">
+        <v>41173</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>41527</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>42996</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -820,10 +786,8 @@
           <t>[649.0, 749.0, 849.0]</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>(late, single update: July 22, 2019)</t>
-        </is>
+      <c r="K7" s="2" t="n">
+        <v>43668</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -842,20 +806,14 @@
           <t>iOS 7.0</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>September 20, 2013</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>September 9, 2015</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>September 18, 2017</t>
-        </is>
+      <c r="C8" s="2" t="n">
+        <v>41537</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>42256</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>42996</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -896,20 +854,14 @@
           <t>iOS 7.0</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>September 20, 2013</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>March 21, 2016</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>September 18, 2019</t>
-        </is>
+      <c r="C9" s="2" t="n">
+        <v>41537</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>42450</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>43726</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -936,10 +888,8 @@
           <t>[649.0, 749.0, 849.0]</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>(latest, exclusive update: November 5, 2020)</t>
-        </is>
+      <c r="K9" s="2" t="n">
+        <v>44140</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -958,20 +908,14 @@
           <t>iOS 8.0</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>September 19, 2014</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>September 7, 2016</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>September 18, 2019</t>
-        </is>
+      <c r="C10" s="2" t="n">
+        <v>41901</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>42620</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>43726</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -998,10 +942,8 @@
           <t>[649.0, 749.0, 849.0]</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>(latest, exclusive update: November 5, 2020)</t>
-        </is>
+      <c r="K10" s="2" t="n">
+        <v>44140</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1020,20 +962,14 @@
           <t>iOS 8.0</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>September 19, 2014</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>September 7, 2016</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>September 18, 2019</t>
-        </is>
+      <c r="C11" s="2" t="n">
+        <v>41901</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>42620</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>43726</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1074,15 +1010,11 @@
           <t>iOS 9.0.1</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>September 25, 2015</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>September 12, 2018</t>
-        </is>
+      <c r="C12" s="2" t="n">
+        <v>42272</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>43355</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1128,15 +1060,11 @@
           <t>iOS 9.0.1</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>September 25, 2015</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>September 12, 2018</t>
-        </is>
+      <c r="C13" s="2" t="n">
+        <v>42272</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>43355</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1182,15 +1110,11 @@
           <t>iOS 9.3</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>March 31, 2016</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>September 12, 2018</t>
-        </is>
+      <c r="C14" s="2" t="n">
+        <v>42460</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>43355</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1232,15 +1156,11 @@
           <t>iOS 10.0.1</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>September 16, 2016</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>September 10, 2019</t>
-        </is>
+      <c r="C15" s="2" t="n">
+        <v>42629</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>43718</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1286,15 +1206,11 @@
           <t>iOS 10.0.1</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>September 16, 2016</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>September 10, 2019</t>
-        </is>
+      <c r="C16" s="2" t="n">
+        <v>42629</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>43718</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1340,15 +1256,11 @@
           <t>iOS 11.0</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>September 22, 2017</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>April 15, 2020</t>
-        </is>
+      <c r="C17" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>43936</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1390,15 +1302,11 @@
           <t>iOS 11.0</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>September 22, 2017</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>April 15, 2020</t>
-        </is>
+      <c r="C18" s="2" t="n">
+        <v>43000</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>43936</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1440,15 +1348,11 @@
           <t>iOS 11.0.1</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>November 3, 2017</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>September 12, 2018</t>
-        </is>
+      <c r="C19" s="2" t="n">
+        <v>43042</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>43355</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1494,15 +1398,11 @@
           <t>iOS 12.0</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>September 21, 2018</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>September 10, 2019</t>
-        </is>
+      <c r="C20" s="2" t="n">
+        <v>43364</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>43718</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1544,15 +1444,11 @@
           <t>iOS 12.0</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>September 21, 2018</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>September 10, 2019</t>
-        </is>
+      <c r="C21" s="2" t="n">
+        <v>43364</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>43718</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1594,10 +1490,8 @@
           <t>iOS 12.0</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>October 26, 2018</t>
-        </is>
+      <c r="C22" s="2" t="n">
+        <v>43399</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -1636,10 +1530,8 @@
           <t>iOS 13.0</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>September 20, 2019</t>
-        </is>
+      <c r="C23" s="2" t="n">
+        <v>43728</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
@@ -1678,15 +1570,11 @@
           <t>iOS 13.0</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>September 20, 2019</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>October 13, 2020</t>
-        </is>
+      <c r="C24" s="2" t="n">
+        <v>43728</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>44117</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1724,15 +1612,11 @@
           <t>iOS 13.0</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>September 20, 2019</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>October 13, 2020</t>
-        </is>
+      <c r="C25" s="2" t="n">
+        <v>43728</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>44117</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1770,10 +1654,8 @@
           <t>iOS 13.4</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>April 24, 2020</t>
-        </is>
+      <c r="C26" s="2" t="n">
+        <v>43945</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
@@ -1812,10 +1694,8 @@
           <t>iOS 14.1</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>October 23, 2020 (12)</t>
-        </is>
+      <c r="C27" s="2" t="n">
+        <v>44127</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
@@ -1854,10 +1734,8 @@
           <t>iOS 14.2</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>November 13, 2020</t>
-        </is>
+      <c r="C28" s="2" t="n">
+        <v>44148</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
@@ -1896,10 +1774,8 @@
           <t>iOS 14.1</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>October 23, 2020 (12 Pro)</t>
-        </is>
+      <c r="C29" s="2" t="n">
+        <v>44127</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
@@ -1938,10 +1814,8 @@
           <t>iOS 14.2</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>November 13, 2020</t>
-        </is>
+      <c r="C30" s="2" t="n">
+        <v>44148</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">

--- a/CleanedData.xlsx
+++ b/CleanedData.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
